--- a/Components/Sipariş Listesi.xlsx
+++ b/Components/Sipariş Listesi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Dersler\SMPS\Proje Github\Components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repositories\Forward Converter\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -202,7 +202,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -484,7 +484,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +553,7 @@
         <v>0.32800000000000001</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F13" si="0">D3*E3</f>
+        <f t="shared" ref="F3:F12" si="0">D3*E3</f>
         <v>3.2800000000000002</v>
       </c>
     </row>
@@ -752,8 +752,8 @@
         <v>87.8</v>
       </c>
       <c r="G25">
-        <f>F25*5.33*1.14*1.18</f>
-        <v>629.51862479999988</v>
+        <f>F25*5.4*1.1*1.18</f>
+        <v>615.40776000000005</v>
       </c>
     </row>
   </sheetData>
